--- a/order.xlsx
+++ b/order.xlsx
@@ -16,36 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>客户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,45 +360,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07EBEB1-466C-4A35-A280-39E51C90B592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -57,24 +80,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -84,44 +113,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -151,12 +180,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -195,207 +224,173 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/order.xlsx
+++ b/order.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07EBEB1-466C-4A35-A280-39E51C90B592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCD6F2E-CE67-42AC-9A23-55AB600AB2BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,16 +25,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>订单列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号:</t>
+  </si>
+  <si>
+    <t>20201230014013</t>
+  </si>
+  <si>
+    <t>客户姓名</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>发货地址</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>13567439867</t>
+  </si>
+  <si>
+    <t>桂电花江校区F区34栋</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>--------------------</t>
+  </si>
+  <si>
+    <t>20201230014446</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>18267329882</t>
+  </si>
+  <si>
+    <t>桂电花江校区D区30栋</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,9 +132,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -365,25 +423,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/order.xlsx
+++ b/order.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
   <si>
     <t>订单列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>桂电花江校区D区30栋</t>
+  </si>
+  <si>
+    <t>20201230015132</t>
+  </si>
+  <si>
+    <t>20201230015534</t>
+  </si>
+  <si>
+    <t>和其正</t>
+  </si>
+  <si>
+    <t>卫龙</t>
   </si>
 </sst>
 </file>
@@ -132,12 +144,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -423,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -571,6 +589,156 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="n" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="C26" t="n" s="5">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
   <si>
     <t>订单列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>卫龙</t>
+  </si>
+  <si>
+    <t>20201231055916</t>
+  </si>
+  <si>
+    <t>王老吉</t>
+  </si>
+  <si>
+    <t>20201231060020</t>
+  </si>
+  <si>
+    <t>螺狮粉</t>
   </si>
 </sst>
 </file>
@@ -144,12 +156,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -441,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -739,6 +757,167 @@
         <v>13</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="n" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="C34" t="n" s="6">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="n" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C41" t="n" s="7">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>订单列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>20201231083853</t>
+  </si>
+  <si>
+    <t>20210101081057</t>
   </si>
 </sst>
 </file>
@@ -108,9 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -402,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="A2:C8"/>
@@ -581,6 +587,59 @@
         <v>8</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C20" t="n" s="5">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBC10AC-4237-40A2-BC02-70CBD15D1C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="924" yWindow="2316" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,54 +25,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
-  <si>
-    <t>订单列表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+  <si>
+    <t>订单id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号:</t>
-  </si>
-  <si>
-    <t>20201231080925</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>面包</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>--------------------</t>
-  </si>
-  <si>
-    <t>20201231080950</t>
-  </si>
-  <si>
-    <t>王老吉</t>
-  </si>
-  <si>
-    <t>20201231083853</t>
-  </si>
-  <si>
-    <t>20210101081057</t>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210106124210</t>
+  </si>
+  <si>
+    <t>20201201</t>
+  </si>
+  <si>
+    <t>2021年01月06日12时42分10秒</t>
+  </si>
+  <si>
+    <t>20210106124634</t>
+  </si>
+  <si>
+    <t>2021年01月06日12时46分34秒</t>
+  </si>
+  <si>
+    <t>20210106124840</t>
+  </si>
+  <si>
+    <t>2021年01月06日12时48分40秒</t>
+  </si>
+  <si>
+    <t>20210106125049</t>
+  </si>
+  <si>
+    <t>2021年01月06日12时50分49秒</t>
+  </si>
+  <si>
+    <t>20210106125246</t>
+  </si>
+  <si>
+    <t>2021年01月06日12时52分46秒</t>
+  </si>
+  <si>
+    <t>20210106125342</t>
+  </si>
+  <si>
+    <t>2021年01月06日12时53分42秒</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,9 +136,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -407,243 +444,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A2:C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="8.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="12.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="28.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="C4" t="n">
         <v>1.0</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="D4" t="n">
         <v>3.0</v>
       </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n" s="2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
         <v>1.0</v>
       </c>
-      <c r="C5" t="n" s="2">
+      <c r="D5" t="n">
         <v>3.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="n" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C10" t="n" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="4" t="n">
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>3.0</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C15" t="n" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="n" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C20" t="n" s="5">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>订单id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>2021年01月06日12时53分42秒</t>
+  </si>
+  <si>
+    <t>20210114060139</t>
+  </si>
+  <si>
+    <t>2021年01月14日06时01分39秒</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +151,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -445,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -579,6 +588,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
